--- a/P0107/09_FICHAS/N3-FD-General.xlsx
+++ b/P0107/09_FICHAS/N3-FD-General.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0107/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066FA20F-F5CC-4436-816A-23EBA5BDF8A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$33</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="256">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,16 +87,763 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0107</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>Plan de formación</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C1. GESTION DEL CONOCIMIENTO/META 2_ Incidencia en los instrumentos de planificación territorial/Formación a PARES/Plan de Formación/Plan de formación.xlsx</t>
+  </si>
+  <si>
+    <t>Formación PARES</t>
+  </si>
+  <si>
+    <t>Es una base de datos con la planeación metodológica de un programa de formación para líderes sociales en la región de La Mojana a partir de cinco módulos: 1. Cambio climático. 2. Agroecosistemas. 3. Agua para la vida. 4. Restauración. 5. Organización y liderazgo</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Es un insumo importante para replicar un curso de formación a personas de La Mojana en temas relacionados con resiliencia al cambio climático y producción agropecuaria</t>
+  </si>
+  <si>
+    <t>Agroecosistemas, cambio climático, organización social, agua, restauración ecológica.</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>Agua_Permanente</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/03_OTROS/INFORMACIÓN_SIG/Mojana_Clima_y_Vida.gdb</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta las zonas de la región de la Mojana en donde hay agua permanentemente</t>
+  </si>
+  <si>
+    <t>Geodatabase</t>
+  </si>
+  <si>
+    <t>Feature class</t>
+  </si>
+  <si>
+    <t>Polígono</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>No presenta variables en la tabla de atributos</t>
+  </si>
+  <si>
+    <t>Agua permanente, Mojana, ciénaga</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>Rompederos_Historicos</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los puntos en donde se encuentran rompederos históricos en el dique marginal de Río Cauca</t>
+  </si>
+  <si>
+    <t>Punto</t>
+  </si>
+  <si>
+    <t>La columna 3 presenta el nombre del rompedero, la columna 4 y 5 las coordenadas</t>
+  </si>
+  <si>
+    <t>Rompedero, rompedero histórico, dique marginal</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>Veredas_Mojana</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las veredas pertenecientes a la región de la Mojana</t>
+  </si>
+  <si>
+    <t>La columna 6 presenta el nombre de la vereda</t>
+  </si>
+  <si>
+    <t>Vereda, Mojana, municipio, localización</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>Centros_Poblados</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los centros poblados pertenecientes a la región de la Mojana</t>
+  </si>
+  <si>
+    <t>La columna 7 presenta el nombre del centro poblado</t>
+  </si>
+  <si>
+    <t>Centros poblados, Mojana, municipio, localización</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Sistemas_Comunitarios_Alertas_Tempranas_APRCruzRoja</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de sistemas comunitarios alertas tempranas APR cruz roja</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el nombre de la comunidad y la columna 5 el nivel de vulnerabilidad</t>
+  </si>
+  <si>
+    <t>Sistema de alerta temprana, Cruz Roja</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>Comunidades_con_Instituciones_Educativas</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las comunidades que cuentan con instituciones educativas</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el nombre de las comunidades</t>
+  </si>
+  <si>
+    <t>Comunidades, instituciones educativas</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>Comunidades_Priorizadas_para_Comunicacion</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta las comunidades cuya comunicación es difícil y por ello es prioridad</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el nombre de la comunidad, la columna 6 el canal de comunicación predominante con la comunidad y la 7 la calidad de la señal en la comunidad</t>
+  </si>
+  <si>
+    <t>Comunicación, comunidad, señal</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>Comunidades_Mojana</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las comunidades pertenecientes a la región de la Mojana</t>
+  </si>
+  <si>
+    <t>La columna 3 presenta el nombre de la comunidad</t>
+  </si>
+  <si>
+    <t>Comunidades, Mojana, municipio, localización</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>Asociaciones_2021</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta áreas de restauración implementadas y la asociación acompañante</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta la descripción del área de restauración, la columna 9 la asociación acompañante}</t>
+  </si>
+  <si>
+    <t>Restauración, asociación</t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>Areas_Ganaderia_Sostenible_CIPAV</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de áreas de ganadería sostenible en la región de la Mojana</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el área de la zona</t>
+  </si>
+  <si>
+    <t>Ganadería sostenible, área, CIPAV</t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>ONIC_2021</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los cultivos ONIC en la región de la Mojana</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta la descripción de los cultivos</t>
+  </si>
+  <si>
+    <t>Onic, cultivos</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>Carta_2019_Paisajes_Rurales</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de paisajes rurales como propuesta de acuerdos de conservación en la región de la Mojana</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el tipo de paisaje</t>
+  </si>
+  <si>
+    <t>Paisaje, conservación, propuesta de conservación</t>
+  </si>
+  <si>
+    <t>R0014</t>
+  </si>
+  <si>
+    <t>CPR_Carta_2_2021_En_Proceso</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta zonas de rehabilitación propuestas y su estado para 2021</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el tipo de cobertura de la zona, la 4 el tipo de rehabilitación y la 9 el estado de implementación</t>
+  </si>
+  <si>
+    <t>Restauración, rehabilitación</t>
+  </si>
+  <si>
+    <t>R0015</t>
+  </si>
+  <si>
+    <t>Tramo10_CPR_2023</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta zonas de rehabilitación propuestas y en estado de enmienda para 2023</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el tipo de cobertura</t>
+  </si>
+  <si>
+    <t>R0016</t>
+  </si>
+  <si>
+    <t>Microacueducto_con_estudios_y_diseños</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las comunidades las cuales cuentan con estudios y diseños de microacueductos</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el nombre de la comunidad</t>
+  </si>
+  <si>
+    <t>Microacueducto, estudios, diseños, comunidad</t>
+  </si>
+  <si>
+    <t>R0017</t>
+  </si>
+  <si>
+    <t>Sicales_Ejecucion_Proyectado_2024_2026</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los Sicales proyectadas para 2024-2026</t>
+  </si>
+  <si>
+    <t>La columna 5 presenta el número de sistemas familiares, la columna 6 el número de sistemas por comunidad</t>
+  </si>
+  <si>
+    <t>Sical, comunidad, proyección</t>
+  </si>
+  <si>
+    <t>R0018</t>
+  </si>
+  <si>
+    <t>Comunidades_SICAL</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta las comunidades Sical</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el nombre de la comunidad, la columna 3 presenta el tipo de comunidad</t>
+  </si>
+  <si>
+    <t>Sical, comunidad</t>
+  </si>
+  <si>
+    <t>R0019</t>
+  </si>
+  <si>
+    <t>Areas_Propuestas_Enmienda_2_CPR_2024_8400ha</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las áreas propuestas en la enmienda 2 CPR 2024 para rehabilitación pasiva</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el tipo de cobertura, la 10 el nombre del microhábitat</t>
+  </si>
+  <si>
+    <t>Enmienda 2 CPR, rehabilitación pasiva, áreas, zapales</t>
+  </si>
+  <si>
+    <t>R0020</t>
+  </si>
+  <si>
+    <t>PARES</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta el número de promotores de adaptación al cambio climático formados (PARES) y numero de juntas gestoras conformadas (JGA) por municipio en la región de la Mojana</t>
+  </si>
+  <si>
+    <t>La columna 5 presenta los PARES y la 6 los JGA</t>
+  </si>
+  <si>
+    <t>PARES, JGA, promotores de adaptación al cambio climático, juntas gestoras conformadas</t>
+  </si>
+  <si>
+    <t>R0021</t>
+  </si>
+  <si>
+    <t>AsociacionesBaseComunitariaFortalecidas</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las asociaciones base comunitaria fortalecidas</t>
+  </si>
+  <si>
+    <t>La columna 4 presenta el nombre de la asociación y la columna 11 presenta el número de familias</t>
+  </si>
+  <si>
+    <t>Asociaciones base comunitaria fortalecidas, familias</t>
+  </si>
+  <si>
+    <t>R0022</t>
+  </si>
+  <si>
+    <t>Microacueductos_para_Fortalecer_50_Comunidades_ADACA</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de distintas comunidades a las cuales se debe fortalecer su sistema de microacueducto</t>
+  </si>
+  <si>
+    <t>Microacueducto, fortalecimiento</t>
+  </si>
+  <si>
+    <t>R0023</t>
+  </si>
+  <si>
+    <t>Areas_de_restauracion_ejecucion_FONAM</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta las áreas de restauración FONAM</t>
+  </si>
+  <si>
+    <t>La columna 4 presenta Nombre de la APR (Acuerdos de Partes Responsable) - Organización especializada</t>
+  </si>
+  <si>
+    <t>Restauración, FONAM</t>
+  </si>
+  <si>
+    <t>R0024</t>
+  </si>
+  <si>
+    <t>Viveros_Comunitarios_Fortalecer</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de los viveros comunitarios que se deben fortalecer</t>
+  </si>
+  <si>
+    <t>La columna 3 presenta el nombre del vivero comunitario</t>
+  </si>
+  <si>
+    <t>Viveros comunitarios, fortalecimiento</t>
+  </si>
+  <si>
+    <t>R0025</t>
+  </si>
+  <si>
+    <t>Estaciones_comunitarias_instaladas_APRCruzRoja</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las estaciones comunitarias instaladas por la cruz roja</t>
+  </si>
+  <si>
+    <t>La columna 3 presenta el nombre de la estación</t>
+  </si>
+  <si>
+    <t>Estaciones comunitarias, Cruz Roja</t>
+  </si>
+  <si>
+    <t>R0026</t>
+  </si>
+  <si>
+    <t>Comunidades_Sistema_Riego_Implementados</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de comunidades que tienen un sistema de siego implementado</t>
+  </si>
+  <si>
+    <t>La columna 3 presenta el nombre de la comunidad, la columna 10 el número de sistemas de riego y la columna 11 el número de familias que hay en la comunidad</t>
+  </si>
+  <si>
+    <t>Sistema de riego, comunidades</t>
+  </si>
+  <si>
+    <t>R0027</t>
+  </si>
+  <si>
+    <t>Estaciones_Comunitarias_Agroecosistemas</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de comunidades que cuentan con estaciones que toman datos relacionados con agrosistemas</t>
+  </si>
+  <si>
+    <t>Estación, pluviómetro, termohigrómetro</t>
+  </si>
+  <si>
+    <t>R0028</t>
+  </si>
+  <si>
+    <t>Estaciones_hidrometeorológicas_automáticas</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las estaciones hidrometeorológicas automáticas</t>
+  </si>
+  <si>
+    <t>La columna 2 presenta el código de la estación del IDEAM</t>
+  </si>
+  <si>
+    <t>Estación, estación automática, hidrometeorológica</t>
+  </si>
+  <si>
+    <t>R0029</t>
+  </si>
+  <si>
+    <t>Consolidado_Agroecosistemas_Lote_1</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización, área y tipo de cultivos en distintas zonas de la región de la Mojana</t>
+  </si>
+  <si>
+    <t>Vale la pena revisar toda la tabla de atributos (no se encuentra en el directorio de datos)</t>
+  </si>
+  <si>
+    <t>Agroecosistemas, cultivos, arroz</t>
+  </si>
+  <si>
+    <t>R0030</t>
+  </si>
+  <si>
+    <t>Comunidades_Sistemas_Riego_Ttto_Aguas_Grises_Ejecucion</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de las comunidades que cuentan con un sistema de riego y de tratamiento de aguas grises</t>
+  </si>
+  <si>
+    <t>Riego, aguas grises, en ejecución</t>
+  </si>
+  <si>
+    <t>R0031</t>
+  </si>
+  <si>
+    <t>Diccionario_de_datos</t>
+  </si>
+  <si>
+    <t>El archivo excel presenta el diccionario de datos de la gdb presente en la carpeta</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>Es insumo importante para entender la GDB</t>
+  </si>
+  <si>
+    <t>Diccionario de datos, GDB Mojana Clima y Vida</t>
+  </si>
+  <si>
+    <t>Especial_Cauca_20082021</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/03_OTROS/INFORMACIÓN_SIG/Diccionario_de_datos.xlsx</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2021/08_Agosto/Especial_Cauca_20082021.jpg</t>
+  </si>
+  <si>
+    <t>Sistema de Alertas tempranas de La Mojana</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>R0032</t>
+  </si>
+  <si>
+    <t>El documento es un recurso valioso para la predicción climática en la región de La Mojana, ya que proporciona una base para la planificación y la gestión de riesgos asociados con las variaciones climáticas.</t>
+  </si>
+  <si>
+    <t>Inundaciones, Nechí, Magangué, San Jacinto del Cauca, Guaranda, Achí, niveles hidrológicos, alertas hidrológicas, ruptura de márgenes, cuenca del río Cauca, condiciones hidrológicas, monitoreo, poblaciones vulnerables, emergencia, desbordamiento, gestión de emergencias, infraestructura de drenaje, planificación, sensibilización comunitaria, rehabilitación, resiliencia, descenso de niveles, estabilización de niveles, inundación por desbordamiento, seguimiento de datos, prevención de desastres.</t>
+  </si>
+  <si>
+    <t>El archivo jpg corresponde a una imagen que corresponde al “Reporte especial de alertas hidrológicas en el río Cauca (tramo Valdivia – Magangué”. La imagen contiene información sobre el estado de las inundaciones en el río Cauca, específicamente en el tramo que va de Valdivia a Magangué. La imagen contiene información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>R0033</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>08_Agosto</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2021/08_Agosto</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2021/09_Septiembre</t>
+  </si>
+  <si>
+    <t>09_Septiembre</t>
+  </si>
+  <si>
+    <t>10_Octubre</t>
+  </si>
+  <si>
+    <t>11_Noviembre</t>
+  </si>
+  <si>
+    <t>12_Diciembre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2021/11_Noviembre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2021/10_Octubre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2021/12_Diciembre</t>
+  </si>
+  <si>
+    <t>R0034</t>
+  </si>
+  <si>
+    <t>R0035</t>
+  </si>
+  <si>
+    <t>R0036</t>
+  </si>
+  <si>
+    <t>R0037</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de septiembre del 2021. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de octubre del 2021. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de agosto del 2021. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de noviembre del 2021. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de diciembre del 2021. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>01_Enero</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/01_Enero</t>
+  </si>
+  <si>
+    <t>02_Febrero</t>
+  </si>
+  <si>
+    <t>03_Marzo</t>
+  </si>
+  <si>
+    <t>04_Abril</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/02_Febrero</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/03_Marzo</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/04_Abril</t>
+  </si>
+  <si>
+    <t>05_Mayo</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/05_Mayo</t>
+  </si>
+  <si>
+    <t>06_Junio</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/06_Junio</t>
+  </si>
+  <si>
+    <t>07_Julio</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/08_Agosto</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/07_Julio</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/09_Septiembre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/10_Octubre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/11_Noviembre</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107/02_PRODUCTOS/C3. SISTEMA DE ALERTAS TEMPRANAS/META 2. INFORMACIÓN REGIONAL CON ALERTAS OPORTUNAS/1. Boletines/05_ReportesEspeciales/2022/12_Diciembre</t>
+  </si>
+  <si>
+    <t>R0038</t>
+  </si>
+  <si>
+    <t>R0039</t>
+  </si>
+  <si>
+    <t>R0040</t>
+  </si>
+  <si>
+    <t>R0041</t>
+  </si>
+  <si>
+    <t>R0042</t>
+  </si>
+  <si>
+    <t>R0043</t>
+  </si>
+  <si>
+    <t>R0044</t>
+  </si>
+  <si>
+    <t>R0045</t>
+  </si>
+  <si>
+    <t>R0046</t>
+  </si>
+  <si>
+    <t>R0047</t>
+  </si>
+  <si>
+    <t>R0048</t>
+  </si>
+  <si>
+    <t>R0049</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de enero del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de febrero del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de marzo del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de abril del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de mayo del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de junio del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de julio del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de agosto del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de septiembre del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de octubre del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de noviembre del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
+  </si>
+  <si>
+    <t>La carpeta contiene archivos pdf correspondientes al  “Reporte especial de alertas hidrológicas en el río Cauca ” para el mes de diciembre del 2022. Los archivos contienen información sobre el estado de las inundaciones en el río Cauca, además de información sobre puntos de interés, alertas hidrológicas, condiciones hidrológicas y zonas de emergencia.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,12 +857,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -125,23 +890,24 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,104 +1186,2525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="&quot;\\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0107\02_PRODUCTOS\C1. GESTION DEL CONOCIMIENTO\META 2_ Incidencia en los instrumentos de planificación territorial\Formación a PARES\Plan de Formación\Plan de formación.xlsx" xr:uid="{3100D46A-C4E5-45DB-AE44-B59AEA9342C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>